--- a/Docs/Statistics.xlsx
+++ b/Docs/Statistics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Time Overview" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="TasksDone" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TasksDone!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TasksDone!$A$1:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Pacman</t>
   </si>
@@ -160,13 +160,16 @@
   </si>
   <si>
     <t>WBS</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,32 +233,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -270,6 +290,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -303,7 +324,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.5</c:v>
@@ -332,6 +353,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -394,6 +416,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -456,6 +479,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -518,6 +542,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -580,6 +605,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -642,6 +668,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -704,6 +731,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>WorkDone!$A$4:$A$8</c:f>
@@ -752,34 +780,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="235322368"/>
-        <c:axId val="235691392"/>
+        <c:axId val="97524736"/>
+        <c:axId val="97551104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235322368"/>
+        <c:axId val="97524736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235691392"/>
+        <c:crossAx val="97551104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235691392"/>
+        <c:axId val="97551104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235322368"/>
+        <c:crossAx val="97524736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -787,9 +831,234 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimated Hours</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TasksDone!$A$3:$B$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Total</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Set up templates</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WBS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Meetings</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Architecture diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Weekly Reports</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>High Design Report</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>L1: High design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TasksDone!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Hours</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>TasksDone!$A$3:$B$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Total</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Set up templates</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WBS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Meetings</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Architecture diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Weekly Reports</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>High Design Report</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>L1: High design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TasksDone!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="99665792"/>
+        <c:axId val="99667328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99665792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99667328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99667328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99665792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -834,8 +1103,207 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="textruta 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="304799"/>
+          <a:ext cx="4076700" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OBS!</a:t>
+          </a:r>
+          <a:endParaRPr lang="sv-SE" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>När</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ni vill infoga en ny rad (genom att markera en rad, högerklicka och välja </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Infoga</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>), välj då </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>inte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> raden precis under rubriken (L1, L2, L3 och L4). Det gör att formlerna uppdaterar sig fel och första raden kommer då inte att räknas med. Det är på grund av detta som jag har lagt in två tomma rader mellan varje rubrik.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dvs, för att infoga en rad, markera raden två rader (eller mer) under rubriken, ex. rad 5 för att infoga under L1, och välj sedan infoga.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Exempel på hur grafen kan se ut ser ni nedan:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="sv-SE" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -909,6 +1377,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -943,6 +1412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1118,79 +1588,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.5">
+    <row r="1" spans="1:1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1202,64 +1672,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1288,12 +1758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1317,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1"/>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1415,37 +1885,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1456,106 +1924,182 @@
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <f>SUM(D4:INDEX(D4:D1004,MATCH(TRUE,INDEX(D4:D1004="",0),0)))</f>
+        <v>10.5</v>
+      </c>
+      <c r="E3">
+        <f>SUM(E4:INDEX(E4:E1004,MATCH(TRUE,INDEX(E4:E1004="",0),0)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="F3">
+        <f>COUNTA(B4:INDEX(B4:B1004,MATCH(TRUE,INDEX(B4:B1004="",0),0)))</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f>COUNTA(C4:INDEX(C4:C1004,MATCH(TRUE,INDEX(C4:C1004="",0),0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="E4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="F6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="F7">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="F8">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="F9">
+      <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D12:INDEX(D12:D1012,MATCH(TRUE,INDEX(D12:D1012="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E12:INDEX(E12:E1012,MATCH(TRUE,INDEX(E12:E1012="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>COUNTA(B12:INDEX(B12:B1012,MATCH(TRUE,INDEX(B12:B1012="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>COUNTA(C12:INDEX(C12:C1012,MATCH(TRUE,INDEX(C12:C1012="",0),0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D15:INDEX(D15:D1015,MATCH(TRUE,INDEX(D15:D1015="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E15:INDEX(E15:E1015,MATCH(TRUE,INDEX(E15:E1015="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>COUNTA(B15:INDEX(B15:B1015,MATCH(TRUE,INDEX(B15:B1015="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>COUNTA(C15:INDEX(C15:C1015,MATCH(TRUE,INDEX(C15:C1015="",0),0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D18:INDEX(D18:D1018,MATCH(TRUE,INDEX(D18:D1018="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E18:INDEX(E18:E1018,MATCH(TRUE,INDEX(E18:E1018="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>COUNTA(B18:INDEX(B18:B1018,MATCH(TRUE,INDEX(B18:B1018="",0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>COUNTA(C18:INDEX(C18:C1018,MATCH(TRUE,INDEX(C18:C1018="",0),0)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Statistics.xlsx
+++ b/Docs/Statistics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Time Overview" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="WorkDone" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TasksDone" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Time Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="WorkDone" sheetId="2" r:id="rId2"/>
+    <sheet name="TasksDone" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlnm._FilterDatabase" vbProcedure="false">TasksDone!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase">TasksDone!$A$1:$F$3</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -170,94 +170,43 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-  </numFmts>
-  <fonts count="13">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="36"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <i val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
       <sz val="18"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +218,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -277,55 +226,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -384,14 +306,22 @@
       <rgbColor rgb="00C0504D"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -407,14 +337,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 1</c:v>
+                  <c:v>Hours Week 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4672a8"/>
+              <a:srgbClr val="4672A8"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -456,7 +386,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -474,14 +404,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 2</c:v>
+                  <c:v>Hours Week 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ab4744"/>
+              <a:srgbClr val="AB4744"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -514,19 +444,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -541,14 +471,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 3</c:v>
+                  <c:v>Hours Week 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8aa64f"/>
+              <a:srgbClr val="8AA64F"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -608,7 +538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 4</c:v>
+                  <c:v>Hours Week 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -675,14 +605,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 5</c:v>
+                  <c:v>Hours Week 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4299b0"/>
+              <a:srgbClr val="4299B0"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -742,14 +672,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 6</c:v>
+                  <c:v>Hours Week 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="dc853e"/>
+              <a:srgbClr val="DC853E"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -809,14 +739,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 7</c:v>
+                  <c:v>Hours Week 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="93a9ce"/>
+              <a:srgbClr val="93A9CE"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -876,14 +806,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Week 8</c:v>
+                  <c:v>Hours Week 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="d09493"/>
+              <a:srgbClr val="D09493"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -935,24 +865,16 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:gapWidth val="150"/>
-        <c:axId val="18686"/>
-        <c:axId val="2153"/>
+        <c:axId val="149640320"/>
+        <c:axId val="149642624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18686"/>
+        <c:axId val="149640320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2153"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
@@ -961,9 +883,24 @@
             <a:round/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149642624"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2153"/>
+        <c:axId val="149642624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -979,11 +916,8 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18686"/>
-        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
@@ -992,26 +926,53 @@
             <a:round/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149640320"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr/>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1023,58 +984,44 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>TasksDone!$A$3:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>L1: High design</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Set up templates</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>WBS</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Meetings</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Architecture diagrams</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Weekly Reports</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>High Design Report</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Total</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Set up templates</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WBS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Meetings</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Architecture diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Weekly Reports</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>High Design Report</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>L1: High design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1083,7 +1030,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>NaN</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -1112,58 +1059,44 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="c0504d"/>
+              <a:srgbClr val="C0504D"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>TasksDone!$A$3:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>L1: High design</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Set up templates</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>WBS</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Meetings</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Architecture diagrams</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Weekly Reports</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>High Design Report</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Total</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Set up templates</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WBS</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Meetings</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Architecture diagrams</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Weekly Reports</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>High Design Report</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>L1: High design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1172,7 +1105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>NaN</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
@@ -1183,37 +1116,23 @@
                 <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>NaN</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="22071"/>
-        <c:axId val="2190"/>
+        <c:axId val="149947520"/>
+        <c:axId val="149949056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22071"/>
+        <c:axId val="149947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2190"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
@@ -1222,9 +1141,24 @@
             <a:round/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149949056"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2190"/>
+        <c:axId val="149949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,11 +1173,8 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="22071"/>
-        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
@@ -1252,25 +1183,52 @@
             <a:round/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149947520"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr/>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1284,14 +1242,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 20"/>
+        <xdr:cNvPr id="2" name="Chart 20"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="189000" y="1762560"/>
-        <a:ext cx="4837320" cy="2476080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1305,7 +1263,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1319,9 +1277,9 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1333,22 +1291,23 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:srgbClr val="bcbcbc"/>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr bIns="45000" lIns="90000" rIns="90000" tIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="sv-SE" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="ff0000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
@@ -1367,7 +1326,7 @@
             <a:t>När ni vill infoga en ny rad (genom att markera en rad, högerklicka och välja </a:t>
           </a:r>
           <a:r>
-            <a:rPr i="1" lang="sv-SE" sz="1100">
+            <a:rPr lang="sv-SE" sz="1100" i="1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1385,7 +1344,7 @@
             <a:t>), välj då </a:t>
           </a:r>
           <a:r>
-            <a:rPr b="1" lang="sv-SE" sz="1100">
+            <a:rPr lang="sv-SE" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1454,14 +1413,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7904520" y="1995840"/>
-        <a:ext cx="4591080" cy="2109240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1474,135 +1433,409 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="A14" activeCellId="0" pane="topLeft" sqref="A14"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1"/>
+      <selection activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.75686274509804"/>
+    <col min="1" max="1" width="31.140625"/>
+    <col min="2" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44.75" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:1" ht="46.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="I11" activeCellId="0" pane="topLeft" sqref="I11"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" activePane="bottomLeft"/>
+      <selection activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="7.78823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.75686274509804"/>
+    <col min="1" max="1" width="13.7109375"/>
+    <col min="2" max="9" width="7.7109375"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.15" outlineLevel="0" r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3" s="6">
+    <row r="3" spans="1:9" s="6" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1631,148 +1864,148 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
@@ -1780,247 +2013,235 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="E9" activeCellId="0" pane="topLeft" sqref="E9"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.75686274509804"/>
+    <col min="1" max="1" width="18.28515625"/>
+    <col min="2" max="2" width="20.85546875"/>
+    <col min="3" max="3" width="10.140625"/>
+    <col min="4" max="4" width="15.7109375"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="6" max="6" width="16"/>
+    <col min="7" max="7" width="10.85546875"/>
+    <col min="8" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.15" outlineLevel="0" r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="7" t="e">
-        <f aca="false">SUM(D4:D4(D4:D1004,MATCH(1,INDEX(D4:D1004="",0),0)))</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUM(D4:D4(D4:D1004,MATCH(1,INDEX(D4:D1004="",0),0)))</f>
+        <v>#REF!</v>
       </c>
       <c r="E3" s="7" t="e">
-        <f aca="false">SUM(E4:E4(E4:E1004,MATCH(1,INDEX(E4:E1004="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="7" t="e">
-        <f aca="false">COUNTA(B4:B4(B4:B1004,MATCH(1,INDEX(B4:B1004="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="7" t="e">
-        <f aca="false">COUNTA(C4:C4(C4:C1004,MATCH(1,INDEX(C4:C1004="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="4">
-      <c r="B4" s="0" t="s">
+        <f ca="1">SUM(E4:E4(E4:E1004,MATCH(1,INDEX(E4:E1004="",0),0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="7">
+        <f ca="1">COUNTA(B4:B4(B4:B1004,MATCH(1,INDEX(B4:B1004="",0),0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <f ca="1">COUNTA(C4:C4(C4:C1004,MATCH(1,INDEX(C4:C1004="",0),0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="5">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="6">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="7">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="8">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="9">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="7" t="e">
-        <f aca="false">SUM(D12:D12(D12:D1012,MATCH(1,INDEX(D12:D1012="",0),0)))</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUM(D12:D12(D12:D1012,MATCH(1,INDEX(D12:D1012="",0),0)))</f>
+        <v>#REF!</v>
       </c>
       <c r="E11" s="7" t="e">
-        <f aca="false">SUM(E12:E12(E12:E1012,MATCH(1,INDEX(E12:E1012="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="7" t="e">
-        <f aca="false">COUNTA(B12:B12(B12:B1012,MATCH(1,INDEX(B12:B1012="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="7" t="e">
-        <f aca="false">COUNTA(C12:C12(C12:C1012,MATCH(1,INDEX(C12:C1012="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+        <f ca="1">SUM(E12:E12(E12:E1012,MATCH(1,INDEX(E12:E1012="",0),0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="7">
+        <f ca="1">COUNTA(B12:B12(B12:B1012,MATCH(1,INDEX(B12:B1012="",0),0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <f ca="1">COUNTA(C12:C12(C12:C1012,MATCH(1,INDEX(C12:C1012="",0),0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="7" t="e">
-        <f aca="false">SUM(D15:D15(D15:D1015,MATCH(1,INDEX(D15:D1015="",0),0)))</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUM(D15:D15(D15:D1015,MATCH(1,INDEX(D15:D1015="",0),0)))</f>
+        <v>#REF!</v>
       </c>
       <c r="E14" s="7" t="e">
-        <f aca="false">SUM(E15:E15(E15:E1015,MATCH(1,INDEX(E15:E1015="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="7" t="e">
-        <f aca="false">COUNTA(B15:B15(B15:B1015,MATCH(1,INDEX(B15:B1015="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="7" t="e">
-        <f aca="false">COUNTA(C15:C15(C15:C1015,MATCH(1,INDEX(C15:C1015="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+        <f ca="1">SUM(E15:E15(E15:E1015,MATCH(1,INDEX(E15:E1015="",0),0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="7">
+        <f ca="1">COUNTA(B15:B15(B15:B1015,MATCH(1,INDEX(B15:B1015="",0),0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <f ca="1">COUNTA(C15:C15(C15:C1015,MATCH(1,INDEX(C15:C1015="",0),0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="7" t="e">
-        <f aca="false">SUM(D18:D18(D18:D1018,MATCH(1,INDEX(D18:D1018="",0),0)))</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUM(D18:D18(D18:D1018,MATCH(1,INDEX(D18:D1018="",0),0)))</f>
+        <v>#REF!</v>
       </c>
       <c r="E17" s="7" t="e">
-        <f aca="false">SUM(E18:E18(E18:E1018,MATCH(1,INDEX(E18:E1018="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="7" t="e">
-        <f aca="false">COUNTA(B18:B18(B18:B1018,MATCH(1,INDEX(B18:B1018="",0),0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="7" t="e">
-        <f aca="false">COUNTA(C18:C18(C18:C1018,MATCH(1,INDEX(C18:C1018="",0),0)))</f>
-        <v>#VALUE!</v>
+        <f ca="1">SUM(E18:E18(E18:E1018,MATCH(1,INDEX(E18:E1018="",0),0)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="7">
+        <f ca="1">COUNTA(B18:B18(B18:B1018,MATCH(1,INDEX(B18:B1018="",0),0)))</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <f ca="1">COUNTA(C18:C18(C18:C1018,MATCH(1,INDEX(C18:C1018="",0),0)))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>